--- a/public/invoices/invoice_format/format_1.xlsx
+++ b/public/invoices/invoice_format/format_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\Coding\ETHEREAL_PROJECTS\CMB_1\cmb\public\invoices\invoice_format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\Coding\ETHEREAL_PROJECTS\CMB_1\cmb_github\cmb-dev\public\invoices\invoice_format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82944DCF-CB25-406F-9DD5-F946926D38BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F2639C-2C30-46C0-AF78-7F7280897D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{929B4E86-C997-44B9-BCA2-498499181A4F}"/>
   </bookViews>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t xml:space="preserve">PAN </t>
-  </si>
-  <si>
-    <t>Period : 01/09/2023 - 30/09/2023</t>
   </si>
   <si>
     <r>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t xml:space="preserve">IN WORDS : </t>
+  </si>
+  <si>
+    <t>Period :</t>
   </si>
 </sst>
 </file>
@@ -411,57 +411,71 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -477,6 +491,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -494,35 +523,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -844,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89645B1-A8D7-4366-8894-EF540BCDC504}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.65" x14ac:dyDescent="0.45"/>
@@ -861,162 +861,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:10" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="15" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:10" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:10" ht="13.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="27"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="28"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" ht="13.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1025,12 +1025,12 @@
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1039,28 +1039,28 @@
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="49"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="45"/>
-      <c r="J14" s="46"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:10" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1069,43 +1069,43 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+      <c r="A16" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="3"/>
       <c r="G16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="42"/>
+        <v>37</v>
+      </c>
+      <c r="H16" s="49"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="51"/>
     </row>
     <row r="17" spans="1:10" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="17"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="1:10" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
       <c r="F18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1124,10 +1124,10 @@
     </row>
     <row r="19" spans="1:10" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="28"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
       <c r="F19" s="2"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -1138,30 +1138,30 @@
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -1173,12 +1173,12 @@
     </row>
     <row r="22" spans="1:10" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1190,16 +1190,16 @@
     </row>
     <row r="23" spans="1:10" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
       <c r="J23" s="9">
         <f>+J20+J21+J22</f>
         <v>0</v>
@@ -1207,35 +1207,35 @@
     </row>
     <row r="24" spans="1:10" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="39"/>
+        <v>36</v>
+      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="48"/>
     </row>
     <row r="25" spans="1:10" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="36"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="40"/>
     </row>
     <row r="26" spans="1:10" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1248,14 +1248,14 @@
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A27" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="36"/>
+      <c r="A27" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3" t="s">
         <v>16</v>
@@ -1264,32 +1264,32 @@
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="17"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="1:10" ht="13.5" x14ac:dyDescent="0.45">
       <c r="A30" s="11"/>
@@ -1304,18 +1304,18 @@
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="17"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="1:10" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
@@ -1325,33 +1325,28 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:J17"/>
     <mergeCell ref="F32:J32"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
@@ -1368,18 +1363,23 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
